--- a/GJ89_standard_VRPB_results.xlsx
+++ b/GJ89_standard_VRPB_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\51425\Desktop\trr_new_makeup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{499F9CAD-115D-463C-BEFA-E1DE9A056FB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DCD4CBB-3EE3-40A6-AAC5-52F8B9C2BBFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31215" yWindow="0" windowWidth="24735" windowHeight="15045" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -526,12 +526,12 @@
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -811,8 +811,8 @@
   <dimension ref="A1:L76"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L20" sqref="L20"/>
+      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K39" sqref="K39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -889,6 +889,9 @@
       <c r="J2" s="2">
         <v>10</v>
       </c>
+      <c r="K2" s="3">
+        <v>25</v>
+      </c>
       <c r="L2" s="3" t="s">
         <v>80</v>
       </c>
@@ -1037,6 +1040,9 @@
       <c r="J7" s="2">
         <v>13</v>
       </c>
+      <c r="K7" s="3">
+        <v>30</v>
+      </c>
       <c r="L7" s="3" t="s">
         <v>132</v>
       </c>
@@ -1148,6 +1154,9 @@
       <c r="J11" s="2">
         <v>29</v>
       </c>
+      <c r="K11" s="3">
+        <v>40</v>
+      </c>
       <c r="L11" s="3" t="s">
         <v>74</v>
       </c>
@@ -1296,6 +1305,9 @@
       <c r="J16" s="2">
         <v>29</v>
       </c>
+      <c r="K16" s="3">
+        <v>38</v>
+      </c>
       <c r="L16" s="3" t="s">
         <v>78</v>
       </c>
@@ -1444,6 +1456,9 @@
       <c r="J21" s="2">
         <v>46</v>
       </c>
+      <c r="K21" s="3">
+        <v>45</v>
+      </c>
       <c r="L21" s="3" t="s">
         <v>85</v>
       </c>
@@ -1555,6 +1570,9 @@
       <c r="J25" s="2">
         <v>95</v>
       </c>
+      <c r="K25" s="3">
+        <v>60</v>
+      </c>
       <c r="L25" s="3" t="s">
         <v>89</v>
       </c>
@@ -1702,6 +1720,9 @@
       </c>
       <c r="J30" s="2">
         <v>88</v>
+      </c>
+      <c r="K30" s="3">
+        <v>57</v>
       </c>
       <c r="L30" s="3" t="s">
         <v>93</v>
@@ -3192,7 +3213,7 @@
     <col min="11" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="3" customFormat="1">
+    <row r="1" spans="1:10">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3224,7 +3245,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="3" customFormat="1">
+    <row r="2" spans="1:10">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -3258,7 +3279,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="3" customFormat="1">
+    <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -3292,7 +3313,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="3" customFormat="1">
+    <row r="4" spans="1:10">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -3326,7 +3347,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="3" customFormat="1">
+    <row r="5" spans="1:10">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -3360,11 +3381,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="3" customFormat="1">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
+    <row r="6" spans="1:10">
       <c r="E6" s="2">
         <f>SUM(E2:E5)</f>
         <v>729206</v>
@@ -3377,14 +3394,13 @@
         <f>(E6-F6)/E6</f>
         <v>-1.3709431902644795E-2</v>
       </c>
-      <c r="H6" s="2"/>
       <c r="I6" s="1"/>
       <c r="J6" s="2">
         <f>AVERAGE(J2:J5)</f>
         <v>9.5</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="3" customFormat="1">
+    <row r="8" spans="1:10">
       <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
@@ -3418,7 +3434,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="3" customFormat="1">
+    <row r="9" spans="1:10">
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
@@ -3452,7 +3468,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="3" customFormat="1">
+    <row r="10" spans="1:10">
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
@@ -3486,11 +3502,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="3" customFormat="1">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
+    <row r="11" spans="1:10">
       <c r="E11" s="2">
         <f>SUM(E8:E10)</f>
         <v>606500</v>
@@ -3503,14 +3515,13 @@
         <f>(E11-F11)/E11</f>
         <v>9.432811211871393E-3</v>
       </c>
-      <c r="H11" s="2"/>
       <c r="I11" s="1"/>
       <c r="J11" s="7">
         <f>AVERAGE(J8:J10)</f>
         <v>15.666666666666666</v>
       </c>
     </row>
-    <row r="13" spans="1:10" s="3" customFormat="1">
+    <row r="13" spans="1:10">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
@@ -3544,7 +3555,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:10" s="3" customFormat="1">
+    <row r="14" spans="1:10">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
@@ -3578,7 +3589,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:10" s="3" customFormat="1">
+    <row r="15" spans="1:10">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
@@ -3612,7 +3623,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:10" s="3" customFormat="1">
+    <row r="16" spans="1:10">
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
@@ -3646,11 +3657,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:10" s="3" customFormat="1">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
+    <row r="17" spans="1:10">
       <c r="E17" s="2">
         <f>SUM(E13:E16)</f>
         <v>859180</v>
@@ -3663,14 +3670,13 @@
         <f t="shared" si="0"/>
         <v>-3.8447124001955352E-2</v>
       </c>
-      <c r="H17" s="2"/>
       <c r="I17" s="1"/>
       <c r="J17" s="7">
         <f>AVERAGE(J13:J16)</f>
         <v>32.25</v>
       </c>
     </row>
-    <row r="19" spans="1:10" s="3" customFormat="1">
+    <row r="19" spans="1:10">
       <c r="A19" s="2" t="s">
         <v>16</v>
       </c>
@@ -3704,7 +3710,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:10" s="3" customFormat="1">
+    <row r="20" spans="1:10">
       <c r="A20" s="2" t="s">
         <v>17</v>
       </c>
@@ -3738,7 +3744,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:10" s="3" customFormat="1">
+    <row r="21" spans="1:10">
       <c r="A21" s="2" t="s">
         <v>18</v>
       </c>
@@ -3772,7 +3778,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:10" s="3" customFormat="1">
+    <row r="22" spans="1:10">
       <c r="A22" s="2" t="s">
         <v>19</v>
       </c>
@@ -3806,11 +3812,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:10" s="3" customFormat="1">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
+    <row r="23" spans="1:10">
       <c r="E23" s="2">
         <f>SUM(E19:E22)</f>
         <v>1084550</v>
@@ -3823,14 +3825,13 @@
         <f t="shared" si="2"/>
         <v>-1.3542944078189111E-2</v>
       </c>
-      <c r="H23" s="2"/>
       <c r="I23" s="1"/>
       <c r="J23" s="2">
         <f>AVERAGE(J19:J22)</f>
         <v>30.25</v>
       </c>
     </row>
-    <row r="25" spans="1:10" s="3" customFormat="1">
+    <row r="25" spans="1:10">
       <c r="A25" s="2" t="s">
         <v>20</v>
       </c>
@@ -3864,7 +3865,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:10" s="3" customFormat="1">
+    <row r="26" spans="1:10">
       <c r="A26" s="2" t="s">
         <v>21</v>
       </c>
@@ -3898,7 +3899,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="27" spans="1:10" s="3" customFormat="1">
+    <row r="27" spans="1:10">
       <c r="A27" s="2" t="s">
         <v>22</v>
       </c>
@@ -3932,11 +3933,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="28" spans="1:10" s="3" customFormat="1">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
+    <row r="28" spans="1:10">
       <c r="E28" s="2">
         <f>SUM(E25:E27)</f>
         <v>657802</v>
@@ -3949,14 +3946,13 @@
         <f>(E28-F28)/E28</f>
         <v>-2.7794077853214191E-2</v>
       </c>
-      <c r="H28" s="2"/>
       <c r="I28" s="1"/>
       <c r="J28" s="2">
         <f>AVERAGE(J25:J27)</f>
         <v>50.333333333333336</v>
       </c>
     </row>
-    <row r="30" spans="1:10" s="3" customFormat="1">
+    <row r="30" spans="1:10">
       <c r="A30" s="2" t="s">
         <v>23</v>
       </c>
@@ -3990,7 +3986,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="31" spans="1:10" s="3" customFormat="1">
+    <row r="31" spans="1:10">
       <c r="A31" s="2" t="s">
         <v>24</v>
       </c>
@@ -4024,7 +4020,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="32" spans="1:10" s="3" customFormat="1">
+    <row r="32" spans="1:10">
       <c r="A32" s="2" t="s">
         <v>25</v>
       </c>
@@ -4058,7 +4054,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="33" spans="1:10" s="3" customFormat="1">
+    <row r="33" spans="1:10">
       <c r="A33" s="2" t="s">
         <v>26</v>
       </c>
@@ -4092,11 +4088,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="34" spans="1:10" s="3" customFormat="1">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
+    <row r="34" spans="1:10">
       <c r="E34" s="2">
         <f>SUM(E30:E33)</f>
         <v>1003367</v>
@@ -4109,14 +4101,13 @@
         <f t="shared" si="4"/>
         <v>-2.3012516855746699E-2</v>
       </c>
-      <c r="H34" s="2"/>
       <c r="I34" s="1"/>
       <c r="J34" s="2">
         <f>AVERAGE(J30:J33)</f>
         <v>108.75</v>
       </c>
     </row>
-    <row r="36" spans="1:10" s="3" customFormat="1">
+    <row r="36" spans="1:10">
       <c r="A36" s="2" t="s">
         <v>27</v>
       </c>
@@ -4150,7 +4141,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="37" spans="1:10" s="3" customFormat="1">
+    <row r="37" spans="1:10">
       <c r="A37" s="2" t="s">
         <v>28</v>
       </c>
@@ -4184,7 +4175,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="38" spans="1:10" s="3" customFormat="1">
+    <row r="38" spans="1:10">
       <c r="A38" s="2" t="s">
         <v>29</v>
       </c>
@@ -4218,7 +4209,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="39" spans="1:10" s="3" customFormat="1">
+    <row r="39" spans="1:10">
       <c r="A39" s="2" t="s">
         <v>30</v>
       </c>
@@ -4252,7 +4243,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="40" spans="1:10" s="3" customFormat="1">
+    <row r="40" spans="1:10">
       <c r="A40" s="2" t="s">
         <v>31</v>
       </c>
@@ -4286,7 +4277,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="41" spans="1:10" s="3" customFormat="1">
+    <row r="41" spans="1:10">
       <c r="A41" s="2" t="s">
         <v>32</v>
       </c>
@@ -4320,11 +4311,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="42" spans="1:10" s="3" customFormat="1">
-      <c r="A42" s="2"/>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
+    <row r="42" spans="1:10">
       <c r="E42" s="2">
         <f>SUM(E36:E41)</f>
         <v>1448962</v>
@@ -4337,14 +4324,13 @@
         <f t="shared" si="4"/>
         <v>-2.5881286051670092E-2</v>
       </c>
-      <c r="H42" s="2"/>
       <c r="I42" s="1"/>
       <c r="J42" s="2">
         <f>AVERAGE(J36:J41)</f>
         <v>108</v>
       </c>
     </row>
-    <row r="44" spans="1:10" s="3" customFormat="1">
+    <row r="44" spans="1:10">
       <c r="A44" s="2" t="s">
         <v>33</v>
       </c>
@@ -4378,7 +4364,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="45" spans="1:10" s="3" customFormat="1">
+    <row r="45" spans="1:10">
       <c r="A45" s="2" t="s">
         <v>34</v>
       </c>
@@ -4412,7 +4398,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="46" spans="1:10" s="3" customFormat="1">
+    <row r="46" spans="1:10">
       <c r="A46" s="2" t="s">
         <v>35</v>
       </c>
@@ -4446,7 +4432,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="47" spans="1:10" s="3" customFormat="1">
+    <row r="47" spans="1:10">
       <c r="A47" s="2" t="s">
         <v>36</v>
       </c>
@@ -4480,7 +4466,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="48" spans="1:10" s="3" customFormat="1">
+    <row r="48" spans="1:10">
       <c r="A48" s="2" t="s">
         <v>37</v>
       </c>
@@ -4514,7 +4500,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="49" spans="1:10" s="3" customFormat="1">
+    <row r="49" spans="1:10">
       <c r="A49" s="2" t="s">
         <v>38</v>
       </c>
@@ -4548,11 +4534,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="50" spans="1:10" s="3" customFormat="1">
-      <c r="A50" s="2"/>
-      <c r="B50" s="2"/>
-      <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
+    <row r="50" spans="1:10">
       <c r="E50" s="2">
         <f>SUM(E44:E49)</f>
         <v>1515224</v>
@@ -4565,14 +4547,13 @@
         <f t="shared" si="4"/>
         <v>-7.3777870466676873E-3</v>
       </c>
-      <c r="H50" s="2"/>
       <c r="I50" s="1"/>
       <c r="J50" s="2">
         <f>AVERAGE(J44:J49)</f>
         <v>191.16666666666666</v>
       </c>
     </row>
-    <row r="52" spans="1:10" s="3" customFormat="1">
+    <row r="52" spans="1:10">
       <c r="A52" s="2" t="s">
         <v>39</v>
       </c>
@@ -4606,7 +4587,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="53" spans="1:10" s="3" customFormat="1">
+    <row r="53" spans="1:10">
       <c r="A53" s="2" t="s">
         <v>40</v>
       </c>
@@ -4640,7 +4621,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="54" spans="1:10" s="3" customFormat="1">
+    <row r="54" spans="1:10">
       <c r="A54" s="2" t="s">
         <v>41</v>
       </c>
@@ -4674,7 +4655,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="55" spans="1:10" s="3" customFormat="1">
+    <row r="55" spans="1:10">
       <c r="A55" s="2" t="s">
         <v>42</v>
       </c>
@@ -4708,7 +4689,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="56" spans="1:10" s="3" customFormat="1">
+    <row r="56" spans="1:10">
       <c r="A56" s="2" t="s">
         <v>43</v>
       </c>
@@ -4742,11 +4723,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="57" spans="1:10" s="3" customFormat="1">
-      <c r="A57" s="2"/>
-      <c r="B57" s="2"/>
-      <c r="C57" s="2"/>
-      <c r="D57" s="2"/>
+    <row r="57" spans="1:10">
       <c r="E57" s="2">
         <f>SUM(E52:E56)</f>
         <v>1551911</v>
@@ -4759,14 +4736,13 @@
         <f t="shared" si="6"/>
         <v>-3.5249444072501579E-2</v>
       </c>
-      <c r="H57" s="2"/>
       <c r="I57" s="1"/>
       <c r="J57" s="2">
         <f>AVERAGE(J52:J56)</f>
         <v>333.8</v>
       </c>
     </row>
-    <row r="59" spans="1:10" s="3" customFormat="1">
+    <row r="59" spans="1:10">
       <c r="A59" s="2" t="s">
         <v>44</v>
       </c>
@@ -4800,7 +4776,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="60" spans="1:10" s="3" customFormat="1">
+    <row r="60" spans="1:10">
       <c r="A60" s="2" t="s">
         <v>45</v>
       </c>
@@ -4834,7 +4810,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="61" spans="1:10" s="3" customFormat="1">
+    <row r="61" spans="1:10">
       <c r="A61" s="2" t="s">
         <v>46</v>
       </c>
@@ -4868,7 +4844,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="62" spans="1:10" s="3" customFormat="1">
+    <row r="62" spans="1:10">
       <c r="A62" s="2" t="s">
         <v>47</v>
       </c>
@@ -4902,11 +4878,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="63" spans="1:10" s="3" customFormat="1">
-      <c r="A63" s="2"/>
-      <c r="B63" s="2"/>
-      <c r="C63" s="2"/>
-      <c r="D63" s="2"/>
+    <row r="63" spans="1:10">
       <c r="E63" s="2">
         <f>SUM(E59:E62)</f>
         <v>1221176</v>
@@ -4919,14 +4891,13 @@
         <f t="shared" si="6"/>
         <v>-4.4618466134283677E-2</v>
       </c>
-      <c r="H63" s="2"/>
       <c r="I63" s="1"/>
       <c r="J63" s="2">
         <f>AVERAGE(J59:J62)</f>
         <v>451.75</v>
       </c>
     </row>
-    <row r="65" spans="1:10" s="3" customFormat="1">
+    <row r="65" spans="1:10">
       <c r="A65" s="2" t="s">
         <v>48</v>
       </c>
@@ -4960,7 +4931,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="66" spans="1:10" s="3" customFormat="1">
+    <row r="66" spans="1:10">
       <c r="A66" s="2" t="s">
         <v>49</v>
       </c>
@@ -4994,7 +4965,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="67" spans="1:10" s="3" customFormat="1">
+    <row r="67" spans="1:10">
       <c r="A67" s="2" t="s">
         <v>50</v>
       </c>
@@ -5028,7 +4999,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="68" spans="1:10" s="3" customFormat="1">
+    <row r="68" spans="1:10">
       <c r="A68" s="2" t="s">
         <v>51</v>
       </c>
@@ -5062,11 +5033,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="69" spans="1:10" s="3" customFormat="1">
-      <c r="A69" s="2"/>
-      <c r="B69" s="2"/>
-      <c r="C69" s="2"/>
-      <c r="D69" s="2"/>
+    <row r="69" spans="1:10">
       <c r="E69" s="2">
         <f>SUM(E65:E68)</f>
         <v>1470845</v>
@@ -5079,14 +5046,13 @@
         <f t="shared" si="6"/>
         <v>-4.1525789597136341E-2</v>
       </c>
-      <c r="H69" s="2"/>
       <c r="I69" s="1"/>
       <c r="J69" s="2">
         <f>AVERAGE(J65:J68)</f>
         <v>700</v>
       </c>
     </row>
-    <row r="71" spans="1:10" s="3" customFormat="1">
+    <row r="71" spans="1:10">
       <c r="A71" s="2" t="s">
         <v>52</v>
       </c>
@@ -5120,7 +5086,7 @@
         <v>1318</v>
       </c>
     </row>
-    <row r="72" spans="1:10" s="3" customFormat="1">
+    <row r="72" spans="1:10">
       <c r="A72" s="2" t="s">
         <v>53</v>
       </c>
@@ -5154,7 +5120,7 @@
         <v>1434</v>
       </c>
     </row>
-    <row r="73" spans="1:10" s="3" customFormat="1">
+    <row r="73" spans="1:10">
       <c r="A73" s="2" t="s">
         <v>54</v>
       </c>
@@ -5188,7 +5154,7 @@
         <v>2204</v>
       </c>
     </row>
-    <row r="74" spans="1:10" s="3" customFormat="1">
+    <row r="74" spans="1:10">
       <c r="A74" s="2" t="s">
         <v>55</v>
       </c>
@@ -5222,7 +5188,7 @@
         <v>1670</v>
       </c>
     </row>
-    <row r="75" spans="1:10" s="3" customFormat="1">
+    <row r="75" spans="1:10">
       <c r="A75" s="2" t="s">
         <v>56</v>
       </c>
@@ -5256,11 +5222,7 @@
         <v>1702</v>
       </c>
     </row>
-    <row r="76" spans="1:10" s="3" customFormat="1">
-      <c r="A76" s="2"/>
-      <c r="B76" s="2"/>
-      <c r="C76" s="2"/>
-      <c r="D76" s="2"/>
+    <row r="76" spans="1:10">
       <c r="E76" s="2">
         <f>SUM(E71:E75)</f>
         <v>1994005</v>
@@ -5273,14 +5235,13 @@
         <f t="shared" si="6"/>
         <v>-8.2078028891602581E-2</v>
       </c>
-      <c r="H76" s="2"/>
       <c r="I76" s="1"/>
       <c r="J76" s="2">
         <f>AVERAGE(J71:J75)</f>
         <v>1665.6</v>
       </c>
     </row>
-    <row r="78" spans="1:10" s="3" customFormat="1">
+    <row r="78" spans="1:10">
       <c r="A78" s="2" t="s">
         <v>57</v>
       </c>
@@ -5314,7 +5275,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="79" spans="1:10" s="3" customFormat="1">
+    <row r="79" spans="1:10">
       <c r="A79" s="2" t="s">
         <v>58</v>
       </c>
@@ -5348,7 +5309,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="80" spans="1:10" s="3" customFormat="1">
+    <row r="80" spans="1:10">
       <c r="A80" s="2" t="s">
         <v>59</v>
       </c>
@@ -5382,7 +5343,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="81" spans="1:10" s="3" customFormat="1">
+    <row r="81" spans="1:10">
       <c r="A81" s="2" t="s">
         <v>60</v>
       </c>
@@ -5416,11 +5377,7 @@
         <v>1967</v>
       </c>
     </row>
-    <row r="82" spans="1:10" s="3" customFormat="1">
-      <c r="A82" s="2"/>
-      <c r="B82" s="2"/>
-      <c r="C82" s="2"/>
-      <c r="D82" s="2"/>
+    <row r="82" spans="1:10">
       <c r="E82" s="2">
         <f>SUM(E78:E81)</f>
         <v>1519345</v>
@@ -5433,14 +5390,13 @@
         <f t="shared" si="6"/>
         <v>-6.1212561992174258E-2</v>
       </c>
-      <c r="H82" s="2"/>
       <c r="I82" s="1"/>
       <c r="J82" s="2">
         <f>AVERAGE(J78:J81)</f>
         <v>1238</v>
       </c>
     </row>
-    <row r="84" spans="1:10" s="3" customFormat="1">
+    <row r="84" spans="1:10">
       <c r="A84" s="2" t="s">
         <v>61</v>
       </c>
@@ -5474,7 +5430,7 @@
         <v>1618</v>
       </c>
     </row>
-    <row r="85" spans="1:10" s="3" customFormat="1">
+    <row r="85" spans="1:10">
       <c r="A85" s="2" t="s">
         <v>62</v>
       </c>
@@ -5508,7 +5464,7 @@
         <v>1668</v>
       </c>
     </row>
-    <row r="86" spans="1:10" s="3" customFormat="1">
+    <row r="86" spans="1:10">
       <c r="A86" s="2" t="s">
         <v>63</v>
       </c>
@@ -5542,7 +5498,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="87" spans="1:10" s="3" customFormat="1">
+    <row r="87" spans="1:10">
       <c r="A87" s="2" t="s">
         <v>64</v>
       </c>
@@ -5576,7 +5532,7 @@
         <v>1733</v>
       </c>
     </row>
-    <row r="88" spans="1:10" s="3" customFormat="1">
+    <row r="88" spans="1:10">
       <c r="A88" s="2" t="s">
         <v>65</v>
       </c>
@@ -5610,7 +5566,7 @@
         <v>2592</v>
       </c>
     </row>
-    <row r="89" spans="1:10" s="3" customFormat="1">
+    <row r="89" spans="1:10">
       <c r="A89" s="2" t="s">
         <v>66</v>
       </c>
